--- a/data/long_razon/P50-Urba-long_razon.xlsx
+++ b/data/long_razon/P50-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>26,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 61,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 49,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 33,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 59,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 6,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 27,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 51,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 13,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 20,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-33,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>44,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 111,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,99; -6,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 63,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 69,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-47,63; -9,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 47,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 78,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,17; -16,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 46,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-36,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-19,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-20,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-28,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 187,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 16,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-53,4; 49,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 87,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,76; 18,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 74,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 106,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-52,36; -0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 38,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>40,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-22,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 70,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 30,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,19; 53,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,7; -11,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 29,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,13; 52,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,52; -8,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 22,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P50-Urba-long_razon.xlsx
+++ b/data/long_razon/P50-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.2537464762237228</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.09315795931998544</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.01085264326649357</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2121850341751319</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.2703941075199586</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.1312600498531016</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.01590364002545805</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1476812433613117</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.262025364651833</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.03196622342848573</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.002578984442900123</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.02090896085326902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.08646177218540903</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1629007085903963</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2377911969903421</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.09254054282127244</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.0001847773396125724</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3054173488115554</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.1849808737762708</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3255045051332263</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.0412713244801619</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1850060330320795</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1492840480337817</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1600313686115839</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.6098411482476085</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4901834823080312</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.3195264395862113</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.7562730880853763</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.5966526842522215</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.08869713912847746</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.2265654036152466</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.09545303632318516</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.5018612573090994</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.168194423879291</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1725503352793476</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.3036357701627156</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.4740586594954819</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3056597302288471</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2690310591008865</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.09996826266037433</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.4596584361549136</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.3117940780363437</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.2009488081962804</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.2968046356299948</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.4667154464732464</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.3086517709848949</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.2336159615987986</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.2084280017368719</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.09114642205648139</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5044832014691404</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.02382268906385464</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3537661202114518</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.1263274160564729</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.4570477705064408</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.04325202705913276</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.460328857557937</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.2161876235396139</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.4472775056198136</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.05672337312953533</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.343271821161694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.9675261405525184</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.06629451185926072</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6549560874081183</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.2332216922255653</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8205119465758158</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>-0.1036827249476932</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.4822836404525334</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.1196872770324671</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.7676276943688836</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>-0.1588164033757291</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.4655563716404911</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>-0.002280915269181211</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.7143984277288581</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3762251048459674</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1897882235334033</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4378185768395383</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1101048668039371</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1775684055820246</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.1302197779967356</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.207817091793759</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.3857807233268693</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.2758541762767116</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.02796290133335156</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.06475705372992706</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.1415841565553212</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.6580557960069573</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5643821369998202</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3167900704512548</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2882758538297608</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.4547656418768527</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2316622684704953</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.5412188008649127</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.0992614845570062</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.5050649588056867</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.3248196465977473</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.3258818571947792</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.356850413248963</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.1170374411476517</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4241161086844727</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.317383270959915</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.8971884728812093</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.216068475989406</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.7475908020918909</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.3592402262539258</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1.040601601444925</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>-0.0105859048606099</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.3404509168105833</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.7630776065790711</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.3904560000097734</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1610591943795052</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.07212688606497393</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1048532404052962</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3269137304186622</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.2116503474159578</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.1024685081058778</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.2190701228999531</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.3581965230419519</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.1873492799438561</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.08758409870163432</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.07170838212401959</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.1264448824408059</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3194978802367944</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1187935249736378</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1201787475318527</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1468524967518476</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.3316417226294976</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.0242569034259674</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.3321120482533715</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.1917197856683123</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.2883468859602696</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.02610095110839966</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.1808727526584271</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.6853385607604033</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.03300714643006529</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.2821165617261077</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4321681642523815</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.5502579583767777</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>-0.09019191782692081</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2754243123755822</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.08329503411054483</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.544730238214881</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>-0.07607710000698358</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2282295756080335</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.08732976110644139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
